--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,11 +1017,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1013,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1033,11 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,37 +1134,37 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>-200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1146,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,37 +1184,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1193,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,25 +1342,28 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1345,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1353,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,46 +1404,49 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,46 +1554,49 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,46 +1604,49 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,46 +1904,49 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,98 +2004,104 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2081,11 +2167,11 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,22 +2337,25 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2272,11 +2370,11 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2307,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -2319,11 +2420,11 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,25 +2487,28 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2410,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
@@ -2430,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2683,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -2692,13 +2817,13 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>600</v>
       </c>
       <c r="N54" s="3">
         <v>600</v>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,34 +2879,35 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2797,19 +2927,22 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -2821,7 +2954,7 @@
         <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2830,22 +2963,25 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>4300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2903,43 +3042,46 @@
         <v>600</v>
       </c>
       <c r="F60" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>700</v>
       </c>
       <c r="H60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>600</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3185,43 +3342,46 @@
         <v>600</v>
       </c>
       <c r="F66" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>600</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42200</v>
+        <v>-40700</v>
       </c>
       <c r="E72" s="3">
-        <v>-42100</v>
+        <v>-40700</v>
       </c>
       <c r="F72" s="3">
-        <v>-42300</v>
+        <v>-40700</v>
       </c>
       <c r="G72" s="3">
-        <v>-42300</v>
+        <v>-40800</v>
       </c>
       <c r="H72" s="3">
-        <v>-42300</v>
+        <v>-40800</v>
       </c>
       <c r="I72" s="3">
-        <v>-42200</v>
+        <v>-40800</v>
       </c>
       <c r="J72" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-40500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3627,7 +3812,7 @@
         <v>-600</v>
       </c>
       <c r="F76" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G76" s="3">
         <v>-700</v>
@@ -3636,34 +3821,37 @@
         <v>-700</v>
       </c>
       <c r="I76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>500</v>
       </c>
       <c r="L76" s="3">
         <v>500</v>
       </c>
       <c r="M76" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N76" s="3">
         <v>200</v>
       </c>
       <c r="O76" s="3">
+        <v>200</v>
+      </c>
+      <c r="P76" s="3">
         <v>-3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,46 +3964,49 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4130,19 +4346,19 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -4151,13 +4367,16 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,16 +4812,19 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4591,34 +4836,37 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4688,14 +4939,14 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,11 +1040,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1035,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1055,11 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1137,37 +1164,37 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>-200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,37 +1217,37 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,17 +1396,17 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1387,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1407,46 +1450,49 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1557,46 +1609,49 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1607,46 +1662,49 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1907,46 +1980,49 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2007,101 +2086,107 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2170,11 +2257,11 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,25 +2436,28 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2373,11 +2472,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2411,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2423,11 +2525,11 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2520,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2811,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -2820,13 +2946,13 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>600</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,28 +3020,28 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2930,19 +3061,22 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -2957,7 +3091,7 @@
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -2966,22 +3100,25 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,58 +3167,64 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
       </c>
       <c r="G66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J66" s="3">
+        <v>800</v>
+      </c>
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-40700</v>
       </c>
-      <c r="E72" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-40800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-40800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-40800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,13 +3983,16 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
         <v>-600</v>
@@ -3815,7 +4001,7 @@
         <v>-600</v>
       </c>
       <c r="G76" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H76" s="3">
         <v>-700</v>
@@ -3824,34 +4010,37 @@
         <v>-700</v>
       </c>
       <c r="J76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>500</v>
       </c>
       <c r="M76" s="3">
         <v>500</v>
       </c>
       <c r="N76" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
       </c>
       <c r="P76" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3967,46 +4162,49 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4349,19 +4566,19 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -4370,13 +4587,16 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4826,8 +5072,8 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4839,34 +5085,37 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4942,14 +5194,14 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,11 +1063,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1058,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1078,11 +1098,14 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1167,37 +1194,37 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>-200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1220,37 +1250,37 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,17 +1439,17 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1430,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,46 +1496,49 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1612,46 +1664,49 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1665,46 +1720,49 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1983,46 +2056,49 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2089,104 +2168,110 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2260,11 +2347,11 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2450,17 +2549,17 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2475,11 +2574,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2516,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2528,11 +2630,11 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2631,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2940,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -2949,13 +3075,13 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>600</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,28 +3154,28 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3094,7 +3228,7 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3103,27 +3237,30 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>4300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3182,13 +3322,13 @@
         <v>700</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
@@ -3197,34 +3337,37 @@
         <v>800</v>
       </c>
       <c r="K60" s="3">
+        <v>800</v>
+      </c>
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>4400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3500,13 +3658,13 @@
         <v>700</v>
       </c>
       <c r="F66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
       </c>
       <c r="H66" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>800</v>
@@ -3515,34 +3673,37 @@
         <v>800</v>
       </c>
       <c r="K66" s="3">
+        <v>800</v>
+      </c>
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
       </c>
       <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-42700</v>
       </c>
-      <c r="E72" s="3">
-        <v>-42700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-42800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-42700</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-40500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,16 +4181,16 @@
         <v>-700</v>
       </c>
       <c r="E76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G76" s="3">
         <v>-600</v>
       </c>
       <c r="H76" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I76" s="3">
         <v>-700</v>
@@ -4013,34 +4199,37 @@
         <v>-700</v>
       </c>
       <c r="K76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>500</v>
       </c>
       <c r="N76" s="3">
         <v>500</v>
       </c>
       <c r="O76" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="P76" s="3">
         <v>200</v>
       </c>
       <c r="Q76" s="3">
+        <v>200</v>
+      </c>
+      <c r="R76" s="3">
         <v>-3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4165,46 +4360,49 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4569,19 +4786,19 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4590,13 +4807,16 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,19 +5304,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5088,34 +5334,37 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5197,14 +5449,14 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1066,14 +1105,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1081,31 +1120,37 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1197,46 +1250,52 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>-200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1253,46 +1312,52 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,20 +1521,20 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1473,16 +1552,22 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1499,46 +1584,52 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-600</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1667,46 +1770,52 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-600</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1723,46 +1832,52 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-600</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2180,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2059,46 +2204,52 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-600</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2304,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2171,107 +2328,119 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-600</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,16 +2485,18 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2350,14 +2523,14 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,34 +2729,40 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2577,14 +2774,14 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2594,16 +2791,22 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2621,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
@@ -2633,14 +2836,14 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2742,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>600</v>
+      </c>
+      <c r="V48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,16 +3287,22 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -3069,25 +3320,25 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>600</v>
       </c>
       <c r="R54" s="3">
         <v>600</v>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>600</v>
+      </c>
+      <c r="V54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,46 +3401,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3198,16 +3459,22 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -3231,42 +3498,48 @@
         <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3310,13 +3583,19 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
@@ -3325,49 +3604,55 @@
         <v>700</v>
       </c>
       <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>700</v>
+      </c>
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,13 +3955,19 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
@@ -3661,49 +3976,55 @@
         <v>700</v>
       </c>
       <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>700</v>
+      </c>
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
       </c>
       <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-43200</v>
       </c>
-      <c r="E72" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-43100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-43100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-43300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-42700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-40700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-40500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-39200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-38300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-38800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-38700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-38500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="F76" s="3">
         <v>-700</v>
       </c>
       <c r="G76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-700</v>
       </c>
       <c r="K76" s="3">
         <v>-700</v>
       </c>
       <c r="L76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4661,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4363,46 +4752,52 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-600</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -4789,34 +5222,40 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,28 +5792,34 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5337,34 +5828,40 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,16 +5916,22 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5452,17 +5955,17 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -3471,7 +3471,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -3595,7 +3595,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
@@ -3610,7 +3610,7 @@
         <v>700</v>
       </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -3967,7 +3967,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
@@ -3982,7 +3982,7 @@
         <v>700</v>
       </c>
       <c r="I66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44500</v>
+        <v>-46500</v>
       </c>
       <c r="E72" s="3">
-        <v>-44500</v>
+        <v>-46500</v>
       </c>
       <c r="F72" s="3">
-        <v>-44500</v>
+        <v>-46500</v>
       </c>
       <c r="G72" s="3">
-        <v>-44500</v>
+        <v>-46500</v>
       </c>
       <c r="H72" s="3">
-        <v>-44500</v>
+        <v>-46500</v>
       </c>
       <c r="I72" s="3">
-        <v>-44400</v>
+        <v>-46500</v>
       </c>
       <c r="J72" s="3">
-        <v>-44400</v>
+        <v>-46400</v>
       </c>
       <c r="K72" s="3">
         <v>-43300</v>
@@ -4549,10 +4549,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
         <v>-700</v>
@@ -4564,7 +4564,7 @@
         <v>-700</v>
       </c>
       <c r="I76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J76" s="3">
         <v>-600</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1111,11 +1131,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1126,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1146,11 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,13 +1258,14 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1256,37 +1283,37 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>-200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1318,37 +1348,37 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1527,17 +1567,17 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1558,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1566,13 +1606,16 @@
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1590,46 +1633,49 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,13 +1801,16 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1776,51 +1828,54 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1838,46 +1893,49 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,13 +2256,16 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2210,46 +2283,49 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,13 +2386,16 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2334,113 +2413,119 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,20 +2573,21 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2529,11 +2616,11 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2746,8 +2845,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2755,17 +2854,17 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2780,11 +2879,11 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2797,20 +2896,23 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2830,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -2842,11 +2944,11 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2963,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,20 +3416,23 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -3326,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -3335,13 +3461,13 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>600</v>
       </c>
       <c r="S54" s="3">
         <v>600</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,19 +3533,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
@@ -3430,7 +3561,7 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
@@ -3439,13 +3570,13 @@
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3465,19 +3596,22 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -3504,7 +3638,7 @@
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3513,22 +3647,25 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>4300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3541,8 +3678,8 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,7 +3738,7 @@
         <v>700</v>
       </c>
       <c r="E60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
@@ -3616,7 +3756,7 @@
         <v>600</v>
       </c>
       <c r="K60" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
@@ -3625,34 +3765,37 @@
         <v>800</v>
       </c>
       <c r="N60" s="3">
+        <v>800</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
       <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>4400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3970,7 +4128,7 @@
         <v>700</v>
       </c>
       <c r="E66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
@@ -3988,7 +4146,7 @@
         <v>600</v>
       </c>
       <c r="K66" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
@@ -3997,34 +4155,37 @@
         <v>800</v>
       </c>
       <c r="N66" s="3">
+        <v>800</v>
+      </c>
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
       </c>
       <c r="T66" s="3">
+        <v>400</v>
+      </c>
+      <c r="U66" s="3">
         <v>4400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-46500</v>
+        <v>-43900</v>
       </c>
       <c r="E72" s="3">
-        <v>-46500</v>
+        <v>-43700</v>
       </c>
       <c r="F72" s="3">
-        <v>-46500</v>
+        <v>-43700</v>
       </c>
       <c r="G72" s="3">
-        <v>-46500</v>
+        <v>-43700</v>
       </c>
       <c r="H72" s="3">
-        <v>-46500</v>
+        <v>-43700</v>
       </c>
       <c r="I72" s="3">
-        <v>-46500</v>
+        <v>-43700</v>
       </c>
       <c r="J72" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-46400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-40500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-38800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-38700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-38500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,19 +4726,22 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F76" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="G76" s="3">
         <v>-700</v>
@@ -4570,7 +4756,7 @@
         <v>-600</v>
       </c>
       <c r="K76" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="L76" s="3">
         <v>-700</v>
@@ -4579,34 +4765,37 @@
         <v>-700</v>
       </c>
       <c r="N76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>500</v>
       </c>
       <c r="Q76" s="3">
         <v>500</v>
       </c>
       <c r="R76" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="S76" s="3">
         <v>200</v>
       </c>
       <c r="T76" s="3">
+        <v>200</v>
+      </c>
+      <c r="U76" s="3">
         <v>-3800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,80 +4856,86 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4758,46 +4953,49 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,55 +5406,58 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -5249,13 +5466,16 @@
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,22 +6041,25 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -5821,8 +6067,8 @@
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5834,34 +6080,37 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,20 +6171,23 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5961,14 +6213,14 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +830,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +901,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,14 +1174,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1149,31 +1189,37 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,20 +1311,22 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1286,46 +1340,52 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>-200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1351,46 +1411,52 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1547,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,46 +1618,52 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1601,28 +1681,34 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1636,46 +1722,52 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-600</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,20 +1902,26 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1831,58 +1935,64 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-600</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1896,46 +2006,52 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-600</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,20 +2399,26 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -2286,46 +2432,52 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-600</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,20 +2541,26 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2416,116 +2574,128 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-600</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,26 +2746,28 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2619,14 +2793,14 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2813,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,43 +3026,49 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2882,14 +3080,14 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2899,26 +3097,32 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2935,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -2947,14 +3151,14 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3168,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3239,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3074,10 +3290,10 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>600</v>
@@ -3094,8 +3310,14 @@
       <c r="W48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,26 +3665,32 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -3455,25 +3707,25 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
-      </c>
-      <c r="S54" s="3">
-        <v>600</v>
-      </c>
-      <c r="T54" s="3">
-        <v>600</v>
       </c>
       <c r="U54" s="3">
         <v>600</v>
@@ -3484,8 +3736,14 @@
       <c r="W54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,55 +3794,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3599,25 +3861,31 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
@@ -3641,31 +3909,37 @@
         <v>300</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3681,11 +3955,11 @@
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3729,22 +4003,28 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>700</v>
@@ -3753,49 +4033,55 @@
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
+        <v>800</v>
+      </c>
+      <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,22 +4429,28 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>700</v>
       </c>
       <c r="G66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
@@ -4143,49 +4459,55 @@
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>700</v>
+      </c>
+      <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
       <c r="O66" s="3">
+        <v>800</v>
+      </c>
+      <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-43900</v>
+        <v>-44400</v>
       </c>
       <c r="E72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-43700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>-43700</v>
       </c>
-      <c r="G72" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-46400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-43300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-43200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-42700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-40700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-40500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-39200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-38300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-38200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-38800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-38700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-38500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-700</v>
       </c>
       <c r="I76" s="3">
         <v>-700</v>
       </c>
       <c r="J76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-700</v>
       </c>
       <c r="N76" s="3">
         <v>-700</v>
       </c>
       <c r="O76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-3600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,90 +5237,102 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -4956,46 +5346,52 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-600</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,26 +5837,32 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -5448,34 +5882,40 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,37 +6530,43 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6083,34 +6575,40 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,25 +6672,31 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F102" s="3">
         <v>200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -6216,17 +6720,17 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,11 +1199,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1195,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1215,11 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,23 +1338,24 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1346,37 +1372,37 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>-200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
@@ -1384,8 +1410,11 @@
       <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,14 +1422,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1417,37 +1446,37 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
@@ -1455,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1553,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1650,23 +1689,23 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1687,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
@@ -1695,23 +1734,26 @@
       <c r="Y22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1728,46 +1770,49 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-200</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
       </c>
       <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,23 +1956,26 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1941,61 +1992,64 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-200</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
       </c>
       <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -2012,46 +2066,49 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-200</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
       <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2405,23 +2474,26 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -2438,46 +2510,49 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-200</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
       <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,23 +2622,26 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -2580,122 +2658,128 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-200</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
       <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2757,20 +2843,20 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2799,11 +2885,11 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2819,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3043,8 +3141,8 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3052,8 +3150,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3061,17 +3159,17 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3086,11 +3184,11 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3112,20 +3213,20 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -3145,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
@@ -3157,11 +3258,11 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,31 +3349,34 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3296,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>600</v>
@@ -3316,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,29 +3793,32 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -3713,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
@@ -3722,13 +3847,13 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
-      </c>
-      <c r="U54" s="3">
-        <v>600</v>
       </c>
       <c r="V54" s="3">
         <v>600</v>
@@ -3742,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,28 +3925,29 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -3826,13 +3956,13 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
@@ -3841,13 +3971,13 @@
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3876,19 +4009,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -3915,7 +4048,7 @@
         <v>300</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -3924,22 +4057,25 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
       <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3">
         <v>4300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3961,8 +4097,8 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -4009,25 +4145,28 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
@@ -4039,13 +4178,13 @@
         <v>700</v>
       </c>
       <c r="L60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
@@ -4054,34 +4193,37 @@
         <v>800</v>
       </c>
       <c r="Q60" s="3">
+        <v>800</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
       </c>
       <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
         <v>4400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,25 +4589,28 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
@@ -4465,13 +4622,13 @@
         <v>700</v>
       </c>
       <c r="L66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
@@ -4480,34 +4637,37 @@
         <v>800</v>
       </c>
       <c r="Q66" s="3">
+        <v>800</v>
+      </c>
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>400</v>
       </c>
       <c r="W66" s="3">
+        <v>400</v>
+      </c>
+      <c r="X66" s="3">
         <v>4400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4826,13 +4999,13 @@
         <v>-44400</v>
       </c>
       <c r="E72" s="3">
-        <v>-44200</v>
+        <v>-44400</v>
       </c>
       <c r="F72" s="3">
         <v>-44200</v>
       </c>
       <c r="G72" s="3">
-        <v>-44000</v>
+        <v>-44200</v>
       </c>
       <c r="H72" s="3">
         <v>-44000</v>
@@ -4844,52 +5017,55 @@
         <v>-44000</v>
       </c>
       <c r="K72" s="3">
-        <v>-43700</v>
+        <v>-44000</v>
       </c>
       <c r="L72" s="3">
         <v>-43700</v>
       </c>
       <c r="M72" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-46400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-43300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-43200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-40700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-40500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-38300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-38200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-38800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-38700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-38500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,28 +5283,31 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-500</v>
       </c>
       <c r="I76" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="J76" s="3">
         <v>-700</v>
@@ -5131,13 +5316,13 @@
         <v>-700</v>
       </c>
       <c r="L76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="M76" s="3">
         <v>-600</v>
       </c>
       <c r="N76" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="O76" s="3">
         <v>-700</v>
@@ -5146,34 +5331,37 @@
         <v>-700</v>
       </c>
       <c r="Q76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>500</v>
       </c>
       <c r="T76" s="3">
         <v>500</v>
       </c>
       <c r="U76" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="V76" s="3">
         <v>200</v>
       </c>
       <c r="W76" s="3">
+        <v>200</v>
+      </c>
+      <c r="X76" s="3">
         <v>-3800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,99 +5431,105 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -5352,46 +5546,49 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-200</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
       <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,29 +6056,32 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -5888,19 +6104,19 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
@@ -5909,13 +6125,16 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,31 +6778,34 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -6568,8 +6813,8 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6581,34 +6826,37 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,29 +6926,32 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6726,14 +6977,14 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -2840,7 +2840,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -3932,7 +3932,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -4154,7 +4154,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -4598,7 +4598,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -4996,25 +4996,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44400</v>
+        <v>-43400</v>
       </c>
       <c r="E72" s="3">
-        <v>-44400</v>
+        <v>-43300</v>
       </c>
       <c r="F72" s="3">
-        <v>-44200</v>
+        <v>-43200</v>
       </c>
       <c r="G72" s="3">
-        <v>-44200</v>
+        <v>-43200</v>
       </c>
       <c r="H72" s="3">
-        <v>-44000</v>
+        <v>-43000</v>
       </c>
       <c r="I72" s="3">
-        <v>-44000</v>
+        <v>-43000</v>
       </c>
       <c r="J72" s="3">
-        <v>-44000</v>
+        <v>-43000</v>
       </c>
       <c r="K72" s="3">
         <v>-44000</v>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,119 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +850,14 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1202,14 +1242,14 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1217,31 +1257,37 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,29 +1391,31 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1375,46 +1429,52 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>-200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,20 +1482,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1449,46 +1509,52 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1581,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1589,8 +1657,14 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,8 +1737,14 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1692,26 +1772,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1729,37 +1809,43 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1773,46 +1859,52 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-600</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1977,14 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,29 +2057,35 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1995,67 +2099,73 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-600</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -2069,46 +2179,52 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-600</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2537,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2477,29 +2617,35 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2513,46 +2659,52 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-600</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,29 +2777,35 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2661,125 +2819,137 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-600</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,35 +3006,37 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2888,14 +3062,14 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
@@ -2908,8 +3082,14 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3162,14 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3242,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3322,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3144,38 +3342,38 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3187,14 +3385,14 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3204,35 +3402,41 @@
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3249,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -3261,14 +3465,14 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
@@ -3278,8 +3482,14 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,19 +3562,25 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -3378,11 +3594,11 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3406,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>600</v>
@@ -3426,8 +3642,14 @@
       <c r="Z48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3882,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3962,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,35 +4042,41 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -3841,25 +4093,25 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
-      </c>
-      <c r="V54" s="3">
-        <v>600</v>
-      </c>
-      <c r="W54" s="3">
-        <v>600</v>
       </c>
       <c r="X54" s="3">
         <v>600</v>
@@ -3870,8 +4122,14 @@
       <c r="Z54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4186,10 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3935,55 +4197,55 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
-      <c r="U57" s="3">
-        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4000,8 +4262,14 @@
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4012,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -4051,60 +4319,66 @@
         <v>300</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>4100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -4148,8 +4422,14 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4157,22 +4437,22 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>600</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
       </c>
       <c r="J60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
@@ -4181,49 +4461,55 @@
         <v>700</v>
       </c>
       <c r="M60" s="3">
+        <v>700</v>
+      </c>
+      <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>800</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
+        <v>800</v>
+      </c>
+      <c r="S60" s="3">
+        <v>800</v>
+      </c>
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>4400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4582,14 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4662,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4902,14 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,22 +4917,22 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>200</v>
+      </c>
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
@@ -4625,49 +4941,55 @@
         <v>700</v>
       </c>
       <c r="M66" s="3">
+        <v>700</v>
+      </c>
+      <c r="N66" s="3">
+        <v>700</v>
+      </c>
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
       <c r="R66" s="3">
+        <v>800</v>
+      </c>
+      <c r="S66" s="3">
+        <v>800</v>
+      </c>
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-43400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="K72" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-43300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="R72" s="3">
         <v>-43200</v>
       </c>
-      <c r="G72" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-44000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-46400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-43300</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-43200</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-42700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-40700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-40500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-39200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-38300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-38200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-38800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-38700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-38500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>100</v>
       </c>
       <c r="G76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-700</v>
       </c>
       <c r="L76" s="3">
         <v>-700</v>
       </c>
       <c r="M76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-700</v>
       </c>
       <c r="Q76" s="3">
         <v>-700</v>
       </c>
       <c r="R76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,108 +5812,120 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -5549,46 +5939,52 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-600</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +6087,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,35 +6487,41 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -6107,34 +6541,40 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6601,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6172,20 +6614,20 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6235,8 +6677,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6837,14 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6394,20 +6854,20 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6457,8 +6917,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,46 +7267,52 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6829,34 +7321,40 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,34 +7427,40 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>200</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6980,17 +7484,17 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -7001,6 +7505,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -4060,7 +4060,7 @@
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -4197,10 +4197,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -4437,10 +4437,10 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -4449,7 +4449,7 @@
         <v>500</v>
       </c>
       <c r="I60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -4917,10 +4917,10 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -4929,7 +4929,7 @@
         <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-43900</v>
+        <v>-42600</v>
       </c>
       <c r="E72" s="3">
-        <v>-43800</v>
+        <v>-42500</v>
       </c>
       <c r="F72" s="3">
-        <v>-43800</v>
+        <v>-42500</v>
       </c>
       <c r="G72" s="3">
-        <v>-43700</v>
+        <v>-42400</v>
       </c>
       <c r="H72" s="3">
-        <v>-43600</v>
+        <v>-42300</v>
       </c>
       <c r="I72" s="3">
-        <v>-43600</v>
+        <v>-42300</v>
       </c>
       <c r="J72" s="3">
-        <v>-43400</v>
+        <v>-42100</v>
       </c>
       <c r="K72" s="3">
         <v>-43000</v>
@@ -5676,7 +5676,7 @@
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,16 +1239,22 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1248,14 +1287,14 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1263,31 +1302,37 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1405,23 +1458,23 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1435,46 +1488,52 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>-200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>100</v>
-      </c>
       <c r="AA17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1485,23 +1544,23 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1515,46 +1574,52 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,8 +1816,14 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1778,26 +1857,26 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1815,16 +1894,22 @@
         <v>0</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1835,23 +1920,23 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1865,46 +1950,52 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-600</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2160,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2075,23 +2178,23 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -2105,46 +2208,52 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-600</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2155,23 +2264,23 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -2185,46 +2294,52 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-600</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,8 +2762,14 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2635,23 +2780,23 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2665,46 +2810,52 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-600</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2934,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2795,23 +2952,23 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2825,131 +2982,143 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-600</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,74 +3179,76 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,16 +3519,22 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -3348,38 +3545,38 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3391,14 +3588,14 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3408,41 +3605,47 @@
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -3459,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
@@ -3471,14 +3674,14 @@
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3582,11 +3797,11 @@
       <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -3600,11 +3815,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3628,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>600</v>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3899,20 +4138,20 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,41 +4293,47 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>600</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -4099,25 +4350,25 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>800</v>
-      </c>
-      <c r="X54" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>600</v>
       </c>
       <c r="Z54" s="3">
         <v>600</v>
@@ -4128,8 +4379,14 @@
       <c r="AB54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,13 +4447,15 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -4206,52 +4467,52 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4286,22 +4553,22 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -4325,31 +4592,37 @@
         <v>300</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
       </c>
       <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>4100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4374,17 +4647,17 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4428,13 +4701,19 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -4446,19 +4725,19 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>700</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
@@ -4467,49 +4746,55 @@
         <v>700</v>
       </c>
       <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>800</v>
       </c>
       <c r="T60" s="3">
+        <v>800</v>
+      </c>
+      <c r="U60" s="3">
+        <v>800</v>
+      </c>
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>4400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>4300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,13 +5217,19 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -4926,19 +5241,19 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>700</v>
@@ -4947,49 +5262,55 @@
         <v>700</v>
       </c>
       <c r="O66" s="3">
+        <v>700</v>
+      </c>
+      <c r="P66" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>800</v>
-      </c>
-      <c r="R66" s="3">
-        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>800</v>
       </c>
       <c r="T66" s="3">
+        <v>800</v>
+      </c>
+      <c r="U66" s="3">
+        <v>800</v>
+      </c>
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>4400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>4300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42600</v>
+        <v>-41100</v>
       </c>
       <c r="E72" s="3">
-        <v>-42500</v>
+        <v>-41000</v>
       </c>
       <c r="F72" s="3">
-        <v>-42500</v>
+        <v>-41000</v>
       </c>
       <c r="G72" s="3">
-        <v>-42400</v>
+        <v>-40900</v>
       </c>
       <c r="H72" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-42300</v>
       </c>
-      <c r="I72" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-42100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-43000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-43000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-44000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-43700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-43700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-46400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-43300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-43200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-42700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-40700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-40500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-39200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-38300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-38200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-38800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-38700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-38500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>400</v>
+      </c>
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-700</v>
       </c>
       <c r="N76" s="3">
         <v>-700</v>
       </c>
       <c r="O76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-700</v>
       </c>
       <c r="S76" s="3">
         <v>-700</v>
       </c>
       <c r="T76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6195,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5915,23 +6304,23 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -5945,46 +6334,52 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-600</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6505,29 +6938,29 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -6547,34 +6980,40 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,22 +7042,24 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -6629,11 +7070,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6854,11 +7313,11 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -6869,11 +7328,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>400</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>500</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="X100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>300</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,40 +7930,46 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G102" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>200</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7490,17 +7993,17 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,8 +1276,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1293,11 +1313,11 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1308,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1328,11 +1348,14 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,38 +1472,39 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1494,37 +1521,37 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>-200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
       <c r="AB17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="3">
         <v>100</v>
@@ -1532,8 +1559,11 @@
       <c r="AD17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,29 +1571,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1580,37 +1610,37 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="3">
         <v>-100</v>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1863,23 +1903,23 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1900,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="3">
         <v>100</v>
@@ -1908,38 +1948,41 @@
       <c r="AD22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1956,46 +1999,49 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-200</v>
       </c>
       <c r="AC23" s="3">
         <v>-200</v>
       </c>
       <c r="AD23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,38 +2215,41 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -2214,76 +2266,79 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-200</v>
       </c>
       <c r="AC26" s="3">
         <v>-200</v>
       </c>
       <c r="AD26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -2300,46 +2355,49 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-200</v>
       </c>
       <c r="AC27" s="3">
         <v>-200</v>
       </c>
       <c r="AD27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2768,38 +2838,41 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2816,46 +2889,49 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-200</v>
       </c>
       <c r="AC33" s="3">
         <v>-200</v>
       </c>
       <c r="AD33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,38 +3016,41 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2988,137 +3067,143 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-200</v>
       </c>
       <c r="AC35" s="3">
         <v>-200</v>
       </c>
       <c r="AD35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,23 +3267,24 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -3205,20 +3292,20 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -3247,11 +3334,11 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3534,10 +3633,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -3551,8 +3650,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3560,8 +3659,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -3569,17 +3668,17 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3594,11 +3693,11 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3611,13 +3710,16 @@
       <c r="AD45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
@@ -3626,29 +3728,29 @@
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3668,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
@@ -3680,11 +3782,11 @@
         <v>100</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,13 +3888,16 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3803,8 +3911,8 @@
       <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3821,8 +3929,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3849,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>600</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,19 +4244,22 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -4153,8 +4273,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,44 +4422,47 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>600</v>
       </c>
       <c r="F54" s="3">
         <v>600</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -4356,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
@@ -4365,13 +4491,13 @@
         <v>100</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>800</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>600</v>
       </c>
       <c r="AA54" s="3">
         <v>600</v>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,16 +4579,17 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -4473,19 +4604,19 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -4494,13 +4625,13 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
@@ -4509,13 +4640,13 @@
         <v>500</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4559,19 +4693,19 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -4598,7 +4732,7 @@
         <v>300</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
@@ -4607,45 +4741,48 @@
         <v>100</v>
       </c>
       <c r="Z58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AA58" s="3">
         <v>300</v>
       </c>
       <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC58" s="3">
         <v>4300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -4653,14 +4790,14 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,7 +4856,7 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -4731,16 +4871,16 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
       </c>
       <c r="M60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
@@ -4752,13 +4892,13 @@
         <v>700</v>
       </c>
       <c r="Q60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R60" s="3">
         <v>600</v>
       </c>
       <c r="S60" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>800</v>
@@ -4767,34 +4907,37 @@
         <v>800</v>
       </c>
       <c r="V60" s="3">
+        <v>800</v>
+      </c>
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
-      </c>
-      <c r="X60" s="3">
-        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>200</v>
       </c>
       <c r="Z60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AA60" s="3">
         <v>400</v>
       </c>
       <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC60" s="3">
         <v>4400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,16 +5378,19 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -5247,16 +5405,16 @@
         <v>100</v>
       </c>
       <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
       </c>
       <c r="M66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
@@ -5268,13 +5426,13 @@
         <v>700</v>
       </c>
       <c r="Q66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="R66" s="3">
         <v>600</v>
       </c>
       <c r="S66" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>800</v>
@@ -5283,34 +5441,37 @@
         <v>800</v>
       </c>
       <c r="V66" s="3">
+        <v>800</v>
+      </c>
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
-      </c>
-      <c r="X66" s="3">
-        <v>200</v>
       </c>
       <c r="Y66" s="3">
         <v>200</v>
       </c>
       <c r="Z66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AA66" s="3">
         <v>400</v>
       </c>
       <c r="AB66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC66" s="3">
         <v>4400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41100</v>
+        <v>-42200</v>
       </c>
       <c r="E72" s="3">
-        <v>-41000</v>
+        <v>-42100</v>
       </c>
       <c r="F72" s="3">
-        <v>-41000</v>
+        <v>-42000</v>
       </c>
       <c r="G72" s="3">
-        <v>-40900</v>
+        <v>-42000</v>
       </c>
       <c r="H72" s="3">
-        <v>-40900</v>
+        <v>-41900</v>
       </c>
       <c r="I72" s="3">
-        <v>-40900</v>
+        <v>-41900</v>
       </c>
       <c r="J72" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-40800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-42300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-42100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-43000</v>
       </c>
       <c r="N72" s="3">
         <v>-43000</v>
       </c>
       <c r="O72" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="P72" s="3">
         <v>-44000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-43700</v>
       </c>
       <c r="Q72" s="3">
         <v>-43700</v>
       </c>
       <c r="R72" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="S72" s="3">
         <v>-46400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-43300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-43200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-42700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-40700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-40500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-39200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-38200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-38800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-38700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-38500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,43 +6212,46 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>100</v>
       </c>
       <c r="H76" s="3">
         <v>100</v>
       </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-500</v>
       </c>
       <c r="M76" s="3">
         <v>-500</v>
       </c>
       <c r="N76" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="O76" s="3">
         <v>-700</v>
@@ -6074,13 +6260,13 @@
         <v>-700</v>
       </c>
       <c r="Q76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="R76" s="3">
         <v>-600</v>
       </c>
       <c r="S76" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="T76" s="3">
         <v>-700</v>
@@ -6089,34 +6275,37 @@
         <v>-700</v>
       </c>
       <c r="V76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="W76" s="3">
         <v>-600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
-      </c>
-      <c r="X76" s="3">
-        <v>500</v>
       </c>
       <c r="Y76" s="3">
         <v>500</v>
       </c>
       <c r="Z76" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AA76" s="3">
         <v>200</v>
       </c>
       <c r="AB76" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-3600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,129 +6390,135 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -6340,46 +6535,49 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-200</v>
       </c>
       <c r="AC81" s="3">
         <v>-200</v>
       </c>
       <c r="AD81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,44 +7140,47 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -6986,19 +7203,19 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
@@ -7007,13 +7224,16 @@
         <v>-100</v>
       </c>
       <c r="AC89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,13 +7264,14 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -7061,14 +7282,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -7076,8 +7297,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,13 +7529,16 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -7319,8 +7549,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -7334,8 +7564,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7776,34 +8022,34 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
@@ -7811,8 +8057,8 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7824,34 +8070,37 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>100</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7948,32 +8200,32 @@
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>200</v>
+        <v>-500</v>
       </c>
       <c r="K102" s="3">
         <v>200</v>
       </c>
       <c r="L102" s="3">
+        <v>200</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -7999,14 +8251,14 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -1956,8 +1956,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -2223,8 +2223,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2312,8 +2312,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2846,8 +2846,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -3024,8 +3024,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -3630,7 +3630,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -4252,8 +4252,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -5386,8 +5386,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -5865,7 +5865,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42200</v>
+        <v>-42100</v>
       </c>
       <c r="E72" s="3">
         <v>-42100</v>
@@ -6492,8 +6492,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STMGF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>STMGF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1279,8 +1299,8 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1316,11 +1336,11 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1331,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
@@ -1351,11 +1371,14 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,41 +1499,42 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1524,37 +1551,37 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>-200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
       <c r="AC17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="3">
         <v>100</v>
@@ -1562,8 +1589,11 @@
       <c r="AE17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,32 +1601,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1613,37 +1643,37 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-600</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
       <c r="AC18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="3">
         <v>-100</v>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1906,23 +1946,23 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1943,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="3">
         <v>100</v>
@@ -1951,41 +1991,44 @@
       <c r="AE22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -2002,46 +2045,49 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>-200</v>
       </c>
       <c r="AD23" s="3">
         <v>-200</v>
       </c>
       <c r="AE23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,41 +2267,44 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -2269,79 +2321,82 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>-200</v>
       </c>
       <c r="AD26" s="3">
         <v>-200</v>
       </c>
       <c r="AE26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -2358,46 +2413,49 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-200</v>
       </c>
       <c r="AD27" s="3">
         <v>-200</v>
       </c>
       <c r="AE27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,31 +2543,34 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2841,41 +2911,44 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2892,46 +2965,49 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-200</v>
       </c>
       <c r="AD33" s="3">
         <v>-200</v>
       </c>
       <c r="AE33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,41 +3095,44 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -3070,140 +3149,146 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-200</v>
       </c>
       <c r="AD35" s="3">
         <v>-200</v>
       </c>
       <c r="AE35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3292,23 +3379,23 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -3337,11 +3424,11 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3653,8 +3752,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3662,8 +3761,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -3671,17 +3770,17 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3696,11 +3795,11 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3725,7 +3827,7 @@
         <v>300</v>
       </c>
       <c r="F46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
@@ -3740,20 +3842,20 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -3773,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
@@ -3785,11 +3887,11 @@
         <v>100</v>
       </c>
       <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3932,8 +4040,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3960,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="3">
         <v>600</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4276,8 +4396,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,13 +4548,16 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E54" s="3">
         <v>500</v>
@@ -4452,20 +4578,20 @@
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -4485,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
@@ -4494,13 +4620,13 @@
         <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>800</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>600</v>
       </c>
       <c r="AB54" s="3">
         <v>600</v>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4607,19 +4738,19 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -4628,13 +4759,13 @@
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>500</v>
@@ -4643,13 +4774,13 @@
         <v>500</v>
       </c>
       <c r="W57" s="3">
+        <v>500</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4696,19 +4830,19 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -4735,7 +4869,7 @@
         <v>300</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>100</v>
@@ -4744,22 +4878,25 @@
         <v>100</v>
       </c>
       <c r="AA58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AB58" s="3">
         <v>300</v>
       </c>
       <c r="AC58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD58" s="3">
         <v>4300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4784,8 +4921,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -4793,14 +4930,14 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4847,13 +4984,16 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -4874,16 +5014,16 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
@@ -4895,13 +5035,13 @@
         <v>700</v>
       </c>
       <c r="R60" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S60" s="3">
         <v>600</v>
       </c>
       <c r="T60" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="U60" s="3">
         <v>800</v>
@@ -4910,34 +5050,37 @@
         <v>800</v>
       </c>
       <c r="W60" s="3">
+        <v>800</v>
+      </c>
+      <c r="X60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>200</v>
       </c>
       <c r="Z60" s="3">
         <v>200</v>
       </c>
       <c r="AA60" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AB60" s="3">
         <v>400</v>
       </c>
       <c r="AC60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD60" s="3">
         <v>4400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,13 +5536,16 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -5408,16 +5566,16 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
         <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
@@ -5429,13 +5587,13 @@
         <v>700</v>
       </c>
       <c r="R66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S66" s="3">
         <v>600</v>
       </c>
       <c r="T66" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>800</v>
@@ -5444,34 +5602,37 @@
         <v>800</v>
       </c>
       <c r="W66" s="3">
+        <v>800</v>
+      </c>
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>200</v>
       </c>
       <c r="Z66" s="3">
         <v>200</v>
       </c>
       <c r="AA66" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AB66" s="3">
         <v>400</v>
       </c>
       <c r="AC66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD66" s="3">
         <v>4400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-42100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-42100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-42000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-42000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-40800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-42100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-43000</v>
       </c>
       <c r="O72" s="3">
         <v>-43000</v>
       </c>
       <c r="P72" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-44000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-43700</v>
       </c>
       <c r="R72" s="3">
         <v>-43700</v>
       </c>
       <c r="S72" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="T72" s="3">
         <v>-46400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-43300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-43200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-42700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-40700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-40500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-39200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-38300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-38200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-38800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-38700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-38500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-38300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6242,19 +6428,19 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-500</v>
       </c>
       <c r="N76" s="3">
         <v>-500</v>
       </c>
       <c r="O76" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="P76" s="3">
         <v>-700</v>
@@ -6263,13 +6449,13 @@
         <v>-700</v>
       </c>
       <c r="R76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="S76" s="3">
         <v>-600</v>
       </c>
       <c r="T76" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="U76" s="3">
         <v>-700</v>
@@ -6278,34 +6464,37 @@
         <v>-700</v>
       </c>
       <c r="W76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X76" s="3">
         <v>-600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>500</v>
       </c>
       <c r="Z76" s="3">
         <v>500</v>
       </c>
       <c r="AA76" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AB76" s="3">
         <v>200</v>
       </c>
       <c r="AC76" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-3800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-3600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,135 +6582,141 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -6538,46 +6733,49 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-200</v>
       </c>
       <c r="AD81" s="3">
         <v>-200</v>
       </c>
       <c r="AE81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,47 +7357,50 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -7206,19 +7423,19 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
@@ -7227,13 +7444,16 @@
         <v>-100</v>
       </c>
       <c r="AD89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7291,8 +7512,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -7300,8 +7521,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,17 +7759,20 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -7552,8 +7782,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -7567,8 +7797,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8025,34 +8271,34 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
@@ -8060,8 +8306,8 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -8073,34 +8319,37 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>100</v>
       </c>
       <c r="AC100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD100" s="3">
         <v>0</v>
       </c>
       <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,13 +8437,16 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
@@ -8203,32 +8455,32 @@
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-500</v>
-      </c>
-      <c r="K102" s="3">
-        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>200</v>
       </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -8254,14 +8506,14 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
